--- a/Day09~/EXCEL/output/output02.xlsx
+++ b/Day09~/EXCEL/output/output02.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="jan_13_output" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="out_january_2013" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,20 +16,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +36,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +44,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,27 +425,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Customer ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Customer Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Invoice Number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Sale Amount</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Purchase Date</t>
         </is>
@@ -481,7 +468,7 @@
       <c r="D2" t="n">
         <v>1200</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="1" t="n">
         <v>41275</v>
       </c>
     </row>
@@ -502,7 +489,7 @@
       <c r="D3" t="n">
         <v>1425</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1" t="n">
         <v>41280</v>
       </c>
     </row>
@@ -523,7 +510,7 @@
       <c r="D4" t="n">
         <v>1390</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="1" t="n">
         <v>41285</v>
       </c>
     </row>
@@ -544,7 +531,7 @@
       <c r="D5" t="n">
         <v>1257</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="1" t="n">
         <v>41292</v>
       </c>
     </row>
@@ -565,7 +552,7 @@
       <c r="D6" t="n">
         <v>1725</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="1" t="n">
         <v>41298</v>
       </c>
     </row>
@@ -586,7 +573,7 @@
       <c r="D7" t="n">
         <v>1995</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="1" t="n">
         <v>41305</v>
       </c>
     </row>
